--- a/StructureDefinition-profile-DeviceRequest.xlsx
+++ b/StructureDefinition-profile-DeviceRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="421">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6716877-06:00</t>
+    <t>2026-02-09T22:05:43.0725014-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,33 +428,117 @@
     <t>DeviceRequest.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DeviceRequest.extension:doNotPerform</t>
+  </si>
+  <si>
+    <t>doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.doNotPerform|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceRequest.doNotPerform from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>If true, indicates that the provider is asking for the patient to either stop using or to not start using the specified device or category of devices. For example, the patient has undergone surgery and the provider is indicating that the patient should not wear contact lenses.</t>
+  </si>
+  <si>
+    <t>Element `DeviceRequest.doNotPerform` is will have a context of DeviceRequest based on following the parent source element upwards and mapping to `DeviceRequest`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>DeviceRequest.extension:quantity</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.quantity|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceRequest.quantity from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The number of devices to be provided.</t>
+  </si>
+  <si>
+    <t>Element `DeviceRequest.quantity` is will have a context of DeviceRequest based on following the parent source element upwards and mapping to `DeviceRequest`.</t>
+  </si>
+  <si>
+    <t>DeviceRequest.extension:asNeeded</t>
+  </si>
+  <si>
+    <t>asNeeded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.asNeeded|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceRequest.asNeeded from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This status is to indicate whether the request is a PRN or may be given as needed.</t>
+  </si>
+  <si>
+    <t>Element `DeviceRequest.asNeeded` is will have a context of DeviceRequest based on following the parent source element upwards and mapping to `DeviceRequest`.</t>
+  </si>
+  <si>
+    <t>DeviceRequest.extension:asNeededFor</t>
+  </si>
+  <si>
+    <t>asNeededFor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.asNeededFor|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceRequest.asNeededFor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The reason for using the device.</t>
+  </si>
+  <si>
+    <t>Element `DeviceRequest.asNeededFor` is will have a context of DeviceRequest based on following the parent source element upwards and mapping to `DeviceRequest`.</t>
+  </si>
+  <si>
+    <t>DeviceRequest.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DeviceRequest.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -462,6 +546,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -601,30 +688,30 @@
     <t>DeviceRequest.priorRequest.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DeviceRequest.priorRequest.extension:replaces</t>
+  </si>
+  <si>
+    <t>replaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.replaces|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for DeviceRequest.replaces from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DeviceRequest in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceRequest.replaces` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DeviceRequest.replaces` is mapped to FHIR R4 element `DeviceRequest.priorRequest`.</t>
   </si>
   <si>
     <t>DeviceRequest.priorRequest.reference</t>
@@ -863,6 +950,9 @@
   </si>
   <si>
     <t>DeviceRequest.parameter.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1542,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1551,9 +1641,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.3046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2542,7 +2632,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2561,17 +2651,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2608,16 +2696,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -2641,7 +2727,7 @@
         <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>78</v>
@@ -2655,18 +2741,20 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
@@ -2678,20 +2766,18 @@
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2739,7 +2825,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2748,7 +2834,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -2760,7 +2846,7 @@
         <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>78</v>
@@ -2771,12 +2857,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2785,7 +2873,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -2794,18 +2882,20 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -2854,7 +2944,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2863,35 +2953,37 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2900,7 +2992,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -2909,7 +3001,7 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>156</v>
@@ -2971,7 +3063,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2980,19 +3072,19 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3003,12 +3095,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3017,7 +3111,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3026,19 +3120,19 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3088,7 +3182,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3097,19 +3191,19 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3120,14 +3214,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3140,22 +3234,26 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3203,7 +3301,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3215,30 +3313,30 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3261,13 +3359,13 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3318,7 +3416,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3333,19 +3431,19 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -3364,7 +3462,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3373,7 +3471,7 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>183</v>
@@ -3384,7 +3482,9 @@
       <c r="M16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="N16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3433,28 +3533,28 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -3465,10 +3565,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3476,7 +3576,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>80</v>
@@ -3488,18 +3588,20 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3536,19 +3638,19 @@
         <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3560,16 +3662,16 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -3580,10 +3682,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3603,16 +3705,16 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3663,7 +3765,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3675,30 +3777,30 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3709,7 +3811,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3721,17 +3823,15 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -3780,28 +3880,28 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -3812,10 +3912,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3835,20 +3935,18 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3873,13 +3971,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -3897,7 +3995,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3909,7 +4007,7 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -3918,7 +4016,7 @@
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3929,10 +4027,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3943,7 +4041,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3952,20 +4050,18 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4002,31 +4098,31 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -4035,7 +4131,7 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4046,12 +4142,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4069,19 +4167,19 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4131,19 +4229,19 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -4152,7 +4250,7 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4163,10 +4261,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4189,15 +4287,17 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4246,7 +4346,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4255,19 +4355,19 @@
         <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4278,10 +4378,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4298,22 +4398,22 @@
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4339,13 +4439,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4363,7 +4463,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4378,27 +4478,27 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4406,7 +4506,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>89</v>
@@ -4415,21 +4515,23 @@
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4454,34 +4556,34 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>89</v>
@@ -4493,16 +4595,16 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -4510,10 +4612,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4536,22 +4638,22 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q26" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4571,13 +4673,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4610,16 +4712,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>255</v>
+        <v>132</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -4627,10 +4729,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4638,7 +4740,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>89</v>
@@ -4653,13 +4755,13 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4686,13 +4788,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4710,10 +4812,10 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>89</v>
@@ -4725,27 +4827,27 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4756,27 +4858,29 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4801,13 +4905,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -4825,13 +4929,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -4840,27 +4944,27 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4868,7 +4972,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>89</v>
@@ -4877,19 +4981,19 @@
         <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4916,13 +5020,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -4940,10 +5044,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>89</v>
@@ -4952,19 +5056,19 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -4972,21 +5076,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4995,25 +5099,25 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="R30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5033,13 +5137,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5057,31 +5161,31 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>187</v>
+        <v>282</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5089,46 +5193,42 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5152,13 +5252,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5176,42 +5276,42 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>132</v>
+        <v>292</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5222,7 +5322,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5234,13 +5334,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5267,10 +5367,10 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>78</v>
@@ -5291,13 +5391,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -5309,24 +5409,24 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5349,17 +5449,15 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5408,7 +5506,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5420,41 +5518,41 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5463,18 +5561,20 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5523,74 +5623,78 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5638,34 +5742,34 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>305</v>
+        <v>132</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -5693,7 +5797,7 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>309</v>
@@ -5729,10 +5833,10 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
@@ -5768,27 +5872,27 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>313</v>
+        <v>188</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5808,18 +5912,20 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5868,7 +5974,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5883,27 +5989,27 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>322</v>
+        <v>188</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>325</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5911,7 +6017,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
@@ -5926,13 +6032,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5983,10 +6089,10 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>89</v>
@@ -5998,27 +6104,27 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6041,13 +6147,13 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6074,13 +6180,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6098,7 +6204,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6113,27 +6219,27 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6156,13 +6262,13 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6213,7 +6319,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6228,27 +6334,27 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6259,7 +6365,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6271,13 +6377,13 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6304,13 +6410,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6328,13 +6434,13 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
@@ -6343,27 +6449,27 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6374,7 +6480,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6386,13 +6492,13 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6443,13 +6549,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6458,16 +6564,16 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6475,10 +6581,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6489,7 +6595,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6498,16 +6604,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6534,13 +6640,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6558,13 +6664,13 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -6573,16 +6679,16 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -6604,7 +6710,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6613,21 +6719,19 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>169</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>374</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6681,7 +6785,7 @@
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -6693,13 +6797,13 @@
         <v>375</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AM44" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -6707,10 +6811,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6730,16 +6834,16 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6766,13 +6870,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -6790,7 +6894,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6814,18 +6918,18 @@
         <v>384</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6845,20 +6949,18 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6907,7 +7009,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6922,18 +7024,482 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AM46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO46" t="s" s="2">
+      <c r="AM50" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DeviceRequest.xlsx
+++ b/StructureDefinition-profile-DeviceRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="424">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0725014-06:00</t>
+    <t>2026-02-17T14:42:26.7892704-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -468,7 +468,7 @@
     <t>If true, indicates that the provider is asking for the patient to either stop using or to not start using the specified device or category of devices. For example, the patient has undergone surgery and the provider is indicating that the patient should not wear contact lenses.</t>
   </si>
   <si>
-    <t>Element `DeviceRequest.doNotPerform` is will have a context of DeviceRequest based on following the parent source element upwards and mapping to `DeviceRequest`.</t>
+    <t>Element `DeviceRequest.doNotPerform` has a context of DeviceRequest based on following the parent source element upwards and mapping to `DeviceRequest`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -491,7 +491,7 @@
     <t>The number of devices to be provided.</t>
   </si>
   <si>
-    <t>Element `DeviceRequest.quantity` is will have a context of DeviceRequest based on following the parent source element upwards and mapping to `DeviceRequest`.</t>
+    <t>Element `DeviceRequest.quantity` has a context of DeviceRequest based on following the parent source element upwards and mapping to `DeviceRequest`.</t>
   </si>
   <si>
     <t>DeviceRequest.extension:asNeeded</t>
@@ -510,7 +510,7 @@
     <t>This status is to indicate whether the request is a PRN or may be given as needed.</t>
   </si>
   <si>
-    <t>Element `DeviceRequest.asNeeded` is will have a context of DeviceRequest based on following the parent source element upwards and mapping to `DeviceRequest`.</t>
+    <t>Element `DeviceRequest.asNeeded` has a context of DeviceRequest based on following the parent source element upwards and mapping to `DeviceRequest`.</t>
   </si>
   <si>
     <t>DeviceRequest.extension:asNeededFor</t>
@@ -529,7 +529,7 @@
     <t>The reason for using the device.</t>
   </si>
   <si>
-    <t>Element `DeviceRequest.asNeededFor` is will have a context of DeviceRequest based on following the parent source element upwards and mapping to `DeviceRequest`.</t>
+    <t>Element `DeviceRequest.asNeededFor` has a context of DeviceRequest based on following the parent source element upwards and mapping to `DeviceRequest`.</t>
   </si>
   <si>
     <t>DeviceRequest.modifierExtension</t>
@@ -711,7 +711,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceRequest.replaces` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceRequest.replaces` is mapped to FHIR R4 element `DeviceRequest.priorRequest`.</t>
+Element `DeviceRequest.replaces` has is mapped to FHIR R4 element `DeviceRequest.priorRequest`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceRequest.priorRequest.reference</t>
@@ -952,10 +952,20 @@
     <t>DeviceRequest.parameter.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>DeviceRequest.parameter.extension:parameter</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.parameter|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceRequest.parameter from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `DeviceRequest.parameter` has is mapped to FHIR R4 element `DeviceRequest.parameter`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceRequest.parameter.modifierExtension</t>
@@ -1632,7 +1642,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO50"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5545,7 +5555,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5567,14 +5577,12 @@
         <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>135</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5611,16 +5619,14 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>217</v>
@@ -5644,7 +5650,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5655,14 +5661,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="D35" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5675,26 +5683,24 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5742,7 +5748,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5751,7 +5757,7 @@
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>140</v>
@@ -5763,7 +5769,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -5774,42 +5780,46 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5833,10 +5843,10 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
@@ -5857,42 +5867,42 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5915,17 +5925,15 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5950,10 +5958,10 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>78</v>
@@ -5974,7 +5982,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6006,10 +6014,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6017,7 +6025,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
@@ -6029,18 +6037,20 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6089,10 +6099,10 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>89</v>
@@ -6104,27 +6114,27 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>188</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>326</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6132,7 +6142,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>89</v>
@@ -6147,13 +6157,13 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6204,10 +6214,10 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>89</v>
@@ -6219,27 +6229,27 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6262,13 +6272,13 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6319,7 +6329,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6334,27 +6344,27 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6377,13 +6387,13 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6434,7 +6444,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6449,27 +6459,27 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6492,13 +6502,13 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6549,7 +6559,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6564,27 +6574,27 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6607,13 +6617,13 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6640,13 +6650,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6664,7 +6674,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6679,16 +6689,16 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -6696,10 +6706,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6722,13 +6732,13 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6755,13 +6765,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6779,7 +6789,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6794,16 +6804,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -6811,10 +6821,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6825,7 +6835,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6837,13 +6847,13 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6870,13 +6880,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -6894,13 +6904,13 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
@@ -6909,27 +6919,27 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6952,13 +6962,13 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6985,13 +6995,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7009,7 +7019,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7024,27 +7034,27 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7064,16 +7074,16 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7124,7 +7134,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7139,16 +7149,16 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7156,10 +7166,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7182,18 +7192,16 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>196</v>
+        <v>396</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7241,7 +7249,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7256,13 +7264,13 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7273,10 +7281,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7299,16 +7307,18 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>407</v>
+        <v>196</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7356,7 +7366,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7371,27 +7381,27 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>413</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7414,17 +7424,15 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7473,7 +7481,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7488,18 +7496,135 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="M51" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AM50" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO50" t="s" s="2">
+      <c r="AM51" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DeviceRequest.xlsx
+++ b/StructureDefinition-profile-DeviceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7892704-06:00</t>
+    <t>2026-02-20T11:59:20.7853124-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DeviceRequest|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DeviceRequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>doNotPerform</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.doNotPerform|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.doNotPerform}
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.quantity|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.quantity}
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>asNeeded</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.asNeeded|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.asNeeded}
 </t>
   </si>
   <si>
@@ -519,7 +519,7 @@
     <t>asNeededFor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.asNeededFor|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.asNeededFor}
 </t>
   </si>
   <si>
@@ -700,7 +700,7 @@
     <t>replaces</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -958,7 +958,7 @@
     <t>parameter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.parameter|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.parameter}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-DeviceRequest.xlsx
+++ b/StructureDefinition-profile-DeviceRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="388">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7853124-06:00</t>
+    <t>2026-02-21T13:36:54.2008602-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DeviceRequest</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DeviceRequest|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>doNotPerform</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.doNotPerform}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.doNotPerform|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.quantity}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.quantity|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>asNeeded</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.asNeeded}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.asNeeded|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -519,7 +519,7 @@
     <t>asNeededFor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.asNeededFor}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.asNeededFor|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -666,7 +666,162 @@
     <t>.outboundRelationship[typeCode=RPLC].target</t>
   </si>
   <si>
-    <t>DeviceRequest.priorRequest.id</t>
+    <t>DeviceRequest.groupIdentifier</t>
+  </si>
+  <si>
+    <t>Identifier of composite request</t>
+  </si>
+  <si>
+    <t>Composite request this is part of.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>ORC.4</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
+  </si>
+  <si>
+    <t>DeviceRequest.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the request.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains the codes cancelled and entered-in-error that mark the request as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes representing the status of the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>ORC.5</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Action.currentStatus</t>
+  </si>
+  <si>
+    <t>DeviceRequest.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>The kind of diagnostic request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>DeviceRequest.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the {{title}} should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, normal priority</t>
+  </si>
+  <si>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>TQ1.9</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>DeviceRequest.code[x]</t>
+  </si>
+  <si>
+    <t>Reference(Device|4.0.1)
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Device requested</t>
+  </si>
+  <si>
+    <t>The details of the device to be used.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for devices that can be requested.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/device-kind|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>DeviceUse.device</t>
+  </si>
+  <si>
+    <t>DeviceRequest.parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Device details</t>
+  </si>
+  <si>
+    <t>Specific parameters for the ordered item.  For example, the prism value for lenses.</t>
+  </si>
+  <si>
+    <t>DeviceRequest.parameter.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -685,287 +840,16 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>DeviceRequest.priorRequest.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>DeviceRequest.parameter.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DeviceRequest.priorRequest.extension:replaces</t>
-  </si>
-  <si>
-    <t>replaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DeviceRequest.replaces from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DeviceRequest in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceRequest.replaces` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceRequest.replaces` has is mapped to FHIR R4 element `DeviceRequest.priorRequest`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>DeviceRequest.priorRequest.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>DeviceRequest.priorRequest.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>DeviceRequest.priorRequest.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>DeviceRequest.priorRequest.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>DeviceRequest.groupIdentifier</t>
-  </si>
-  <si>
-    <t>Identifier of composite request</t>
-  </si>
-  <si>
-    <t>Composite request this is part of.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>ORC.4</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
-  </si>
-  <si>
-    <t>DeviceRequest.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the request.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains the codes cancelled and entered-in-error that mark the request as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes representing the status of the request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>ORC.5</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Action.currentStatus</t>
-  </si>
-  <si>
-    <t>DeviceRequest.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
-  </si>
-  <si>
-    <t>The kind of diagnostic request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>DeviceRequest.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the {{title}} should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>If missing, normal priority</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>TQ1.9</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>DeviceRequest.code[x]</t>
-  </si>
-  <si>
-    <t>Reference(Device|4.0.1)
-CodeableConcept</t>
-  </si>
-  <si>
-    <t>Device requested</t>
-  </si>
-  <si>
-    <t>The details of the device to be used.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for devices that can be requested.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/device-kind|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>DeviceUse.device</t>
-  </si>
-  <si>
-    <t>DeviceRequest.parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Device details</t>
-  </si>
-  <si>
-    <t>Specific parameters for the ordered item.  For example, the prism value for lenses.</t>
-  </si>
-  <si>
-    <t>DeviceRequest.parameter.id</t>
-  </si>
-  <si>
-    <t>DeviceRequest.parameter.extension</t>
-  </si>
-  <si>
-    <t>DeviceRequest.parameter.extension:parameter</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceRequest.parameter}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DeviceRequest.parameter from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `DeviceRequest.parameter` has is mapped to FHIR R4 element `DeviceRequest.parameter`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceRequest.parameter.modifierExtension</t>
@@ -1642,7 +1526,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1651,7 +1535,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.3046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1679,7 +1563,7 @@
     <col min="26" max="26" width="41.75" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3945,16 +3829,16 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4005,7 +3889,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4017,13 +3901,13 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>214</v>
@@ -4051,27 +3935,29 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4096,76 +3982,74 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>78</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4174,23 +4058,21 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4215,13 +4097,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4239,31 +4121,31 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4271,10 +4153,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4297,22 +4179,22 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="R23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4332,13 +4214,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4356,7 +4238,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4365,22 +4247,22 @@
         <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4388,10 +4270,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4399,7 +4281,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>89</v>
@@ -4414,17 +4296,15 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4449,13 +4329,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4473,10 +4353,10 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>89</v>
@@ -4488,27 +4368,27 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4519,7 +4399,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4528,20 +4408,18 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4590,13 +4468,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -4608,24 +4486,24 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4645,20 +4523,18 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4707,7 +4583,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4719,7 +4595,7 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -4728,7 +4604,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4739,21 +4615,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4762,18 +4638,20 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4822,28 +4700,28 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4854,21 +4732,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4880,18 +4758,20 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4915,13 +4795,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -4939,42 +4819,42 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4982,7 +4862,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>89</v>
@@ -4991,19 +4871,19 @@
         <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5030,13 +4910,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5054,10 +4934,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>89</v>
@@ -5069,27 +4949,27 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5109,25 +4989,25 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q30" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5147,13 +5027,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5171,7 +5051,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5186,27 +5066,27 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5229,13 +5109,13 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5262,13 +5142,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5286,7 +5166,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>89</v>
@@ -5301,27 +5181,27 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5332,7 +5212,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5341,16 +5221,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5401,13 +5281,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -5416,27 +5296,27 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5456,16 +5336,16 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5516,7 +5396,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5528,30 +5408,30 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5562,7 +5442,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5571,16 +5451,16 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>135</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5619,56 +5499,56 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5677,7 +5557,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5686,20 +5566,18 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5748,31 +5626,31 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>217</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -5780,46 +5658,42 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5843,13 +5717,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5867,31 +5741,31 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>132</v>
+        <v>336</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -5899,10 +5773,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5922,16 +5796,16 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5958,10 +5832,10 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>78</v>
@@ -5982,7 +5856,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5997,27 +5871,27 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6028,7 +5902,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6037,20 +5911,18 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6075,13 +5947,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6099,13 +5971,13 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
@@ -6114,27 +5986,27 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>292</v>
+        <v>351</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>294</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6142,10 +6014,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6157,13 +6029,13 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6214,13 +6086,13 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -6229,27 +6101,27 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6260,7 +6132,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6269,16 +6141,16 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6329,13 +6201,13 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
@@ -6344,27 +6216,27 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6375,7 +6247,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6384,19 +6256,21 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6444,13 +6318,13 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
@@ -6459,27 +6333,27 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6490,7 +6364,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6499,16 +6373,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6559,13 +6433,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6574,27 +6448,27 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>356</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6605,7 +6479,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6614,18 +6488,20 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6674,13 +6550,13 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -6689,942 +6565,18 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO51" t="s" s="2">
         <v>78</v>
       </c>
     </row>
